--- a/Code/Results/Cases/Case_2_254/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_254/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.180132472009547</v>
+        <v>0.7466359478912636</v>
       </c>
       <c r="C2">
-        <v>0.1119271725873059</v>
+        <v>0.2194227286667019</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1267720070362586</v>
+        <v>0.2261932789802152</v>
       </c>
       <c r="F2">
-        <v>1.264253000431751</v>
+        <v>2.334359484226638</v>
       </c>
       <c r="G2">
-        <v>0.0008282450294703045</v>
+        <v>0.002498382364234378</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07040052239977612</v>
+        <v>0.08082821524235229</v>
       </c>
       <c r="K2">
-        <v>0.8689742674827698</v>
+        <v>0.3282684772701998</v>
       </c>
       <c r="L2">
-        <v>0.3702056988581433</v>
+        <v>0.4073937232074485</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.144864671989154</v>
+        <v>4.546524183113121</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02772274310928</v>
+        <v>0.7048634148921735</v>
       </c>
       <c r="C3">
-        <v>0.1139802614868621</v>
+        <v>0.220401941611378</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1175461714330481</v>
+        <v>0.2249063562856648</v>
       </c>
       <c r="F3">
-        <v>1.212592683110699</v>
+        <v>2.336188907939999</v>
       </c>
       <c r="G3">
-        <v>0.0008321900794643769</v>
+        <v>0.002500910583379626</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06870970260771969</v>
+        <v>0.08016630187227491</v>
       </c>
       <c r="K3">
-        <v>0.7561388340079134</v>
+        <v>0.2945379121028964</v>
       </c>
       <c r="L3">
-        <v>0.3283175907674547</v>
+        <v>0.3977089723769893</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.155717838922683</v>
+        <v>4.579802438045277</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9345355138144953</v>
+        <v>0.6794496682884983</v>
       </c>
       <c r="C4">
-        <v>0.1152993250630985</v>
+        <v>0.2210387314803395</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.112002939146354</v>
+        <v>0.2242013783275496</v>
       </c>
       <c r="F4">
-        <v>1.18288056741531</v>
+        <v>2.33843479985623</v>
       </c>
       <c r="G4">
-        <v>0.0008346910339003465</v>
+        <v>0.00250254568062742</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06768039435158002</v>
+        <v>0.0797619858871812</v>
       </c>
       <c r="K4">
-        <v>0.686955251881372</v>
+        <v>0.2738498744335232</v>
       </c>
       <c r="L4">
-        <v>0.3028343523517663</v>
+        <v>0.3919205461470909</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.166557028888789</v>
+        <v>4.602429260024195</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8966440636511948</v>
+        <v>0.6691531091140064</v>
       </c>
       <c r="C5">
-        <v>0.1158514794939585</v>
+        <v>0.2213071891178462</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1097730147097167</v>
+        <v>0.223935580976768</v>
       </c>
       <c r="F5">
-        <v>1.171254457879343</v>
+        <v>2.339632550437386</v>
       </c>
       <c r="G5">
-        <v>0.0008357303395655769</v>
+        <v>0.00250323286823763</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06726309040975309</v>
+        <v>0.07959776918221095</v>
       </c>
       <c r="K5">
-        <v>0.6587765269055268</v>
+        <v>0.2654255216080088</v>
       </c>
       <c r="L5">
-        <v>0.2925039205341875</v>
+        <v>0.3896016615478004</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.171984119407298</v>
+        <v>4.612201571455074</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8903567943149255</v>
+        <v>0.6674470031668989</v>
       </c>
       <c r="C6">
-        <v>0.1159440455654881</v>
+        <v>0.2213523081362467</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1094044441944533</v>
+        <v>0.2238927451454522</v>
       </c>
       <c r="F6">
-        <v>1.169352400845</v>
+        <v>2.339848507274453</v>
       </c>
       <c r="G6">
-        <v>0.0008359041426809167</v>
+        <v>0.002503348237678709</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06719392485807418</v>
+        <v>0.07957053455902141</v>
       </c>
       <c r="K6">
-        <v>0.6540980319330743</v>
+        <v>0.2640270526403015</v>
       </c>
       <c r="L6">
-        <v>0.2907916864224092</v>
+        <v>0.3892190311599677</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.172945158231428</v>
+        <v>4.613857578696894</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9340241801019431</v>
+        <v>0.6793105624166742</v>
       </c>
       <c r="C7">
-        <v>0.1153067124876372</v>
+        <v>0.2210423156852315</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1119727502365748</v>
+        <v>0.2241977066077325</v>
       </c>
       <c r="F7">
-        <v>1.182721852338943</v>
+        <v>2.338449808864013</v>
       </c>
       <c r="G7">
-        <v>0.0008347049682497221</v>
+        <v>0.002502554863736623</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06767475785224164</v>
+        <v>0.0797597689730587</v>
       </c>
       <c r="K7">
-        <v>0.6865751798265194</v>
+        <v>0.2737362349472505</v>
       </c>
       <c r="L7">
-        <v>0.3026948197865664</v>
+        <v>0.3918891108478419</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.166626182206741</v>
+        <v>4.602558818985571</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.127490257961995</v>
+        <v>0.7321844698994084</v>
       </c>
       <c r="C8">
-        <v>0.1126228983643216</v>
+        <v>0.2197529959778635</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.123564764755244</v>
+        <v>0.2257319022975928</v>
       </c>
       <c r="F8">
-        <v>1.246009656645356</v>
+        <v>2.334757408814838</v>
       </c>
       <c r="G8">
-        <v>0.0008295891766656025</v>
+        <v>0.002499236954439829</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06981563749704023</v>
+        <v>0.08059956124714418</v>
       </c>
       <c r="K8">
-        <v>0.8300417852430826</v>
+        <v>0.3166337574390923</v>
       </c>
       <c r="L8">
-        <v>0.355710418188238</v>
+        <v>0.4040217358255376</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.147715635664113</v>
+        <v>4.557543216015702</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.510767001892958</v>
+        <v>0.8377069681289697</v>
       </c>
       <c r="C9">
-        <v>0.1078272976158559</v>
+        <v>0.2175057378063272</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1473357091492495</v>
+        <v>0.2294140384173211</v>
       </c>
       <c r="F9">
-        <v>1.387146815745695</v>
+        <v>2.336415998212118</v>
       </c>
       <c r="G9">
-        <v>0.0008201640712663141</v>
+        <v>0.002493384397074278</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07408836398802876</v>
+        <v>0.08226240991939449</v>
       </c>
       <c r="K9">
-        <v>1.112672300166452</v>
+        <v>0.4009182028070768</v>
       </c>
       <c r="L9">
-        <v>0.461801969982389</v>
+        <v>0.4290604627650794</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.145662997489268</v>
+        <v>4.486674453546044</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.79590341021887</v>
+        <v>0.9163280136914409</v>
       </c>
       <c r="C10">
-        <v>0.1045939836351799</v>
+        <v>0.2160246875901315</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1655459930819205</v>
+        <v>0.2325272036454678</v>
       </c>
       <c r="F10">
-        <v>1.502853778132973</v>
+        <v>2.343052591688121</v>
       </c>
       <c r="G10">
-        <v>0.0008135838739858239</v>
+        <v>0.002489479181443044</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07727944700759437</v>
+        <v>0.08349311606217213</v>
       </c>
       <c r="K10">
-        <v>1.321896556768877</v>
+        <v>0.4629240923294446</v>
       </c>
       <c r="L10">
-        <v>0.5414265043770001</v>
+        <v>0.4482088192451101</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.168318926777005</v>
+        <v>4.445220121138334</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.926670379282882</v>
+        <v>0.9523272485369603</v>
       </c>
       <c r="C11">
-        <v>0.1031872798089317</v>
+        <v>0.2153875506031753</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.174018966540487</v>
+        <v>0.2340314887944217</v>
       </c>
       <c r="F11">
-        <v>1.558488806442085</v>
+        <v>2.347246927105459</v>
       </c>
       <c r="G11">
-        <v>0.0008106591485342879</v>
+        <v>0.002487787453856625</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07874400044314456</v>
+        <v>0.08405480156245915</v>
       </c>
       <c r="K11">
-        <v>1.417610324479512</v>
+        <v>0.4911468225570275</v>
       </c>
       <c r="L11">
-        <v>0.5781055752099462</v>
+        <v>0.4570818119353959</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.184542696253374</v>
+        <v>4.428666471843314</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.976365219483853</v>
+        <v>0.9659922868498825</v>
       </c>
       <c r="C12">
-        <v>0.1026639407493271</v>
+        <v>0.2151515251239147</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1772569926622438</v>
+        <v>0.2346137336147933</v>
       </c>
       <c r="F12">
-        <v>1.580022285489846</v>
+        <v>2.349004046389553</v>
       </c>
       <c r="G12">
-        <v>0.0008095609769266864</v>
+        <v>0.002487158967766227</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07930057951231717</v>
+        <v>0.08426774521740299</v>
       </c>
       <c r="K12">
-        <v>1.453948546075651</v>
+        <v>0.5018359234073841</v>
       </c>
       <c r="L12">
-        <v>0.5920687891809422</v>
+        <v>0.4604649505850205</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.191597501096112</v>
+        <v>4.422729404627546</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.965654303129668</v>
+        <v>0.9630478247327119</v>
       </c>
       <c r="C13">
-        <v>0.1027762332847786</v>
+        <v>0.2152021244782603</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1765582754452879</v>
+        <v>0.2344877771755947</v>
       </c>
       <c r="F13">
-        <v>1.575363379203409</v>
+        <v>2.348618114289451</v>
       </c>
       <c r="G13">
-        <v>0.0008097970801154266</v>
+        <v>0.002487293784826862</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07918061986189784</v>
+        <v>0.08422187335238718</v>
       </c>
       <c r="K13">
-        <v>1.446118027920988</v>
+        <v>0.4995337641285857</v>
       </c>
       <c r="L13">
-        <v>0.5890581545003499</v>
+        <v>0.4597353058383788</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.190036588518609</v>
+        <v>4.423993315638938</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.930755126473059</v>
+        <v>0.9534508242406901</v>
       </c>
       <c r="C14">
-        <v>0.1031440362697893</v>
+        <v>0.2153680276416772</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1742847559515539</v>
+        <v>0.2340791381682692</v>
       </c>
       <c r="F14">
-        <v>1.560250839580135</v>
+        <v>2.347388104164366</v>
       </c>
       <c r="G14">
-        <v>0.0008105686168450897</v>
+        <v>0.002487735505188477</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07878975000295796</v>
+        <v>0.08407231574566509</v>
       </c>
       <c r="K14">
-        <v>1.420597919963768</v>
+        <v>0.4920261889438109</v>
       </c>
       <c r="L14">
-        <v>0.5792528141902267</v>
+        <v>0.4573596824585024</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.185104476031739</v>
+        <v>4.428171382565523</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.909402073594009</v>
+        <v>0.9475766476603553</v>
       </c>
       <c r="C15">
-        <v>0.1033705476197611</v>
+        <v>0.2154703305576291</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1728960721238408</v>
+        <v>0.2338304746201629</v>
       </c>
       <c r="F15">
-        <v>1.551055683508807</v>
+        <v>2.346656666448268</v>
       </c>
       <c r="G15">
-        <v>0.0008110424083146854</v>
+        <v>0.00248800765017264</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07855059330734449</v>
+        <v>0.08398073884423596</v>
       </c>
       <c r="K15">
-        <v>1.404978799205452</v>
+        <v>0.4874277966871716</v>
       </c>
       <c r="L15">
-        <v>0.5732565940244996</v>
+        <v>0.4559075503506449</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.182203946727412</v>
+        <v>4.430773735766309</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.787380780780836</v>
+        <v>0.9139800254191357</v>
       </c>
       <c r="C16">
-        <v>0.1046872163050914</v>
+        <v>0.2160670608846154</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1649962621537853</v>
+        <v>0.2324306623263297</v>
       </c>
       <c r="F16">
-        <v>1.499281138165841</v>
+        <v>2.342802115844023</v>
       </c>
       <c r="G16">
-        <v>0.0008137763499065377</v>
+        <v>0.002489591440791141</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07718400554185223</v>
+        <v>0.08345644391992479</v>
       </c>
       <c r="K16">
-        <v>1.315653602264291</v>
+        <v>0.4610799462046771</v>
       </c>
       <c r="L16">
-        <v>0.5390393056208751</v>
+        <v>0.4476321963411607</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.167382794427311</v>
+        <v>4.446348315419868</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.712812065162666</v>
+        <v>0.8934290112823362</v>
       </c>
       <c r="C17">
-        <v>0.1055114654357396</v>
+        <v>0.2164424964924017</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1601999949012658</v>
+        <v>0.2315944403672106</v>
       </c>
       <c r="F17">
-        <v>1.468311056677521</v>
+        <v>2.340738363090992</v>
       </c>
       <c r="G17">
-        <v>0.0008154707607282146</v>
+        <v>0.002490584717835075</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0763490435496621</v>
+        <v>0.08313526229052215</v>
       </c>
       <c r="K17">
-        <v>1.261004151712967</v>
+        <v>0.44492010037672</v>
       </c>
       <c r="L17">
-        <v>0.5181706954160887</v>
+        <v>0.4425969557827472</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.159847640408429</v>
+        <v>4.45649303702794</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.670020044769274</v>
+        <v>0.8816306937512195</v>
       </c>
       <c r="C18">
-        <v>0.1059915815295049</v>
+        <v>0.2166618832006542</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1574589530159969</v>
+        <v>0.2311217628680033</v>
       </c>
       <c r="F18">
-        <v>1.450777999379852</v>
+        <v>2.339661984994166</v>
       </c>
       <c r="G18">
-        <v>0.000816451834236945</v>
+        <v>0.002491164007420346</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0758700028224375</v>
+        <v>0.08295070052041709</v>
       </c>
       <c r="K18">
-        <v>1.229620690110664</v>
+        <v>0.4356269161472142</v>
       </c>
       <c r="L18">
-        <v>0.5062101789226716</v>
+        <v>0.4397161085067012</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.156066739680995</v>
+        <v>4.462544882074553</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.655547512938284</v>
+        <v>0.8776398019435305</v>
       </c>
       <c r="C19">
-        <v>0.1061551725561607</v>
+        <v>0.2167367562084159</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1565338458033949</v>
+        <v>0.2309631490158921</v>
       </c>
       <c r="F19">
-        <v>1.444888708419128</v>
+        <v>2.33931654991548</v>
       </c>
       <c r="G19">
-        <v>0.0008167851391254352</v>
+        <v>0.002491361517681725</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07570801148836637</v>
+        <v>0.08288824140221251</v>
       </c>
       <c r="K19">
-        <v>1.21900280627105</v>
+        <v>0.4324806828051919</v>
       </c>
       <c r="L19">
-        <v>0.5021676321355528</v>
+        <v>0.438743335609459</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.154879824205324</v>
+        <v>4.4646311770681</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.720739726820966</v>
+        <v>0.8956144218894053</v>
       </c>
       <c r="C20">
-        <v>0.1054230977728459</v>
+        <v>0.2164021742099784</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1607087233769739</v>
+        <v>0.2316825995488472</v>
       </c>
       <c r="F20">
-        <v>1.471578642475151</v>
+        <v>2.34094660388395</v>
       </c>
       <c r="G20">
-        <v>0.0008152897194012501</v>
+        <v>0.002490478155961981</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07643780083131801</v>
+        <v>0.08316943480475558</v>
       </c>
       <c r="K20">
-        <v>1.266816446109772</v>
+        <v>0.4466401888531664</v>
       </c>
       <c r="L20">
-        <v>0.5203877350332533</v>
+        <v>0.4431313848172209</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.160592101710677</v>
+        <v>4.455390668120032</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.94100087559292</v>
+        <v>0.9562688087949027</v>
       </c>
       <c r="C21">
-        <v>0.1030357488422453</v>
+        <v>0.2153191556759708</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1749517240175535</v>
+        <v>0.2341988237620001</v>
       </c>
       <c r="F21">
-        <v>1.56467683344097</v>
+        <v>2.347744807896774</v>
       </c>
       <c r="G21">
-        <v>0.0008103417480928388</v>
+        <v>0.002487605432146836</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07890450303522201</v>
+        <v>0.08411623791758416</v>
       </c>
       <c r="K21">
-        <v>1.428091120356896</v>
+        <v>0.4942313020337963</v>
       </c>
       <c r="L21">
-        <v>0.5821308161076502</v>
+        <v>0.458056834599887</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.186527924369898</v>
+        <v>4.426935186962766</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.085994049678845</v>
+        <v>0.9961014282332599</v>
       </c>
       <c r="C22">
-        <v>0.1015300370856629</v>
+        <v>0.2146419007983695</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1844334587131087</v>
+        <v>0.2359167624321898</v>
       </c>
       <c r="F22">
-        <v>1.6282541154998</v>
+        <v>2.353171722633746</v>
       </c>
       <c r="G22">
-        <v>0.0008071622488594357</v>
+        <v>0.002485798644564981</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08052826843777439</v>
+        <v>0.08473645152537301</v>
       </c>
       <c r="K22">
-        <v>1.534046917369807</v>
+        <v>0.5253448932618596</v>
       </c>
       <c r="L22">
-        <v>0.6229168192610359</v>
+        <v>0.4679461939791878</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.208820984502921</v>
+        <v>4.410269824669342</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.008504829745164</v>
+        <v>0.9748247396021839</v>
       </c>
       <c r="C23">
-        <v>0.1023286279201692</v>
+        <v>0.2150005742768037</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1793562319573496</v>
+        <v>0.2349931670922842</v>
       </c>
       <c r="F23">
-        <v>1.594059706769073</v>
+        <v>2.35018531377969</v>
       </c>
       <c r="G23">
-        <v>0.0008088544181649981</v>
+        <v>0.002486756510196004</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07966052529859624</v>
+        <v>0.08440530749131625</v>
       </c>
       <c r="K23">
-        <v>1.477439937528828</v>
+        <v>0.5087382380868064</v>
       </c>
       <c r="L23">
-        <v>0.6011061635673798</v>
+        <v>0.4626557999567069</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.196412822662381</v>
+        <v>4.41898763357392</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.717155388199586</v>
+        <v>0.8946263455726182</v>
       </c>
       <c r="C24">
-        <v>0.1054630293533201</v>
+        <v>0.2164203928732853</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1604786763361261</v>
+        <v>0.2316427176176674</v>
       </c>
       <c r="F24">
-        <v>1.47010052211705</v>
+        <v>2.340852115249277</v>
       </c>
       <c r="G24">
-        <v>0.0008153715466064164</v>
+        <v>0.002490526306909232</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07639767059002622</v>
+        <v>0.08315398512946359</v>
       </c>
       <c r="K24">
-        <v>1.264188599281624</v>
+        <v>0.4458625451422336</v>
       </c>
       <c r="L24">
-        <v>0.5193852963723913</v>
+        <v>0.4428897258916606</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.160253818523046</v>
+        <v>4.455888365342929</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.406547937813343</v>
+        <v>0.8089663984227116</v>
       </c>
       <c r="C25">
-        <v>0.1090741009885541</v>
+        <v>0.2180837283585042</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1407826239765981</v>
+        <v>0.2283460942565938</v>
       </c>
       <c r="F25">
-        <v>1.346980138907128</v>
+        <v>2.335015315640831</v>
       </c>
       <c r="G25">
-        <v>0.0008226513906903463</v>
+        <v>0.002494898079276658</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07292386081959989</v>
+        <v>0.08181092866557194</v>
       </c>
       <c r="K25">
-        <v>1.035996931291976</v>
+        <v>0.3781013923133969</v>
       </c>
       <c r="L25">
-        <v>0.4328356509867888</v>
+        <v>0.4221541453525788</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.14218928176976</v>
+        <v>4.503982687212186</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_254/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_254/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7466359478912636</v>
+        <v>1.18013247200966</v>
       </c>
       <c r="C2">
-        <v>0.2194227286667019</v>
+        <v>0.1119271725868209</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2261932789802152</v>
+        <v>0.1267720070362515</v>
       </c>
       <c r="F2">
-        <v>2.334359484226638</v>
+        <v>1.264253000431736</v>
       </c>
       <c r="G2">
-        <v>0.002498382364234378</v>
+        <v>0.0008282450294260318</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08082821524235229</v>
+        <v>0.07040052239976546</v>
       </c>
       <c r="K2">
-        <v>0.3282684772701998</v>
+        <v>0.8689742674827414</v>
       </c>
       <c r="L2">
-        <v>0.4073937232074485</v>
+        <v>0.3702056988583138</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.546524183113121</v>
+        <v>2.144864671989154</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7048634148921735</v>
+        <v>1.02772274310928</v>
       </c>
       <c r="C3">
-        <v>0.220401941611378</v>
+        <v>0.1139802614866312</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2249063562856648</v>
+        <v>0.1175461714330588</v>
       </c>
       <c r="F3">
-        <v>2.336188907939999</v>
+        <v>1.212592683110685</v>
       </c>
       <c r="G3">
-        <v>0.002500910583379626</v>
+        <v>0.0008321900795243808</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08016630187227491</v>
+        <v>0.06870970260786891</v>
       </c>
       <c r="K3">
-        <v>0.2945379121028964</v>
+        <v>0.756138834007885</v>
       </c>
       <c r="L3">
-        <v>0.3977089723769893</v>
+        <v>0.3283175907675258</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.579802438045277</v>
+        <v>2.155717838922556</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6794496682884983</v>
+        <v>0.9345355138144953</v>
       </c>
       <c r="C4">
-        <v>0.2210387314803395</v>
+        <v>0.1152993250629351</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2242013783275496</v>
+        <v>0.1120029391463433</v>
       </c>
       <c r="F4">
-        <v>2.33843479985623</v>
+        <v>1.182880567415324</v>
       </c>
       <c r="G4">
-        <v>0.00250254568062742</v>
+        <v>0.0008346910338400266</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0797619858871812</v>
+        <v>0.06768039435160134</v>
       </c>
       <c r="K4">
-        <v>0.2738498744335232</v>
+        <v>0.6869552518812867</v>
       </c>
       <c r="L4">
-        <v>0.3919205461470909</v>
+        <v>0.3028343523517805</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.602429260024195</v>
+        <v>2.166557028888775</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6691531091140064</v>
+        <v>0.8966440636511663</v>
       </c>
       <c r="C5">
-        <v>0.2213071891178462</v>
+        <v>0.1158514794938785</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.223935580976768</v>
+        <v>0.1097730147096954</v>
       </c>
       <c r="F5">
-        <v>2.339632550437386</v>
+        <v>1.171254457879343</v>
       </c>
       <c r="G5">
-        <v>0.00250323286823763</v>
+        <v>0.0008357303395652009</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07959776918221095</v>
+        <v>0.06726309040965717</v>
       </c>
       <c r="K5">
-        <v>0.2654255216080088</v>
+        <v>0.6587765269055978</v>
       </c>
       <c r="L5">
-        <v>0.3896016615478004</v>
+        <v>0.2925039205341164</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.612201571455074</v>
+        <v>2.171984119407398</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6674470031668989</v>
+        <v>0.890356794314954</v>
       </c>
       <c r="C6">
-        <v>0.2213523081362467</v>
+        <v>0.1159440455654952</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2238927451454522</v>
+        <v>0.109404444194471</v>
       </c>
       <c r="F6">
-        <v>2.339848507274453</v>
+        <v>1.169352400844986</v>
       </c>
       <c r="G6">
-        <v>0.002503348237678709</v>
+        <v>0.0008359041426007064</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07957053455902141</v>
+        <v>0.06719392485814879</v>
       </c>
       <c r="K6">
-        <v>0.2640270526403015</v>
+        <v>0.6540980319328611</v>
       </c>
       <c r="L6">
-        <v>0.3892190311599677</v>
+        <v>0.2907916864223665</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.613857578696894</v>
+        <v>2.172945158231315</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6793105624166742</v>
+        <v>0.9340241801019147</v>
       </c>
       <c r="C7">
-        <v>0.2210423156852315</v>
+        <v>0.1153067124876141</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2241977066077325</v>
+        <v>0.1119727502365748</v>
       </c>
       <c r="F7">
-        <v>2.338449808864013</v>
+        <v>1.182721852338915</v>
       </c>
       <c r="G7">
-        <v>0.002502554863736623</v>
+        <v>0.0008347049682277671</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0797597689730587</v>
+        <v>0.0676747578522594</v>
       </c>
       <c r="K7">
-        <v>0.2737362349472505</v>
+        <v>0.6865751798265052</v>
       </c>
       <c r="L7">
-        <v>0.3918891108478419</v>
+        <v>0.3026948197866659</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.602558818985571</v>
+        <v>2.166626182206684</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7321844698994084</v>
+        <v>1.127490257961966</v>
       </c>
       <c r="C8">
-        <v>0.2197529959778635</v>
+        <v>0.1126228983640818</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2257319022975928</v>
+        <v>0.123564764755244</v>
       </c>
       <c r="F8">
-        <v>2.334757408814838</v>
+        <v>1.246009656645398</v>
       </c>
       <c r="G8">
-        <v>0.002499236954439829</v>
+        <v>0.0008295891767245153</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08059956124714418</v>
+        <v>0.06981563749684838</v>
       </c>
       <c r="K8">
-        <v>0.3166337574390923</v>
+        <v>0.8300417852431679</v>
       </c>
       <c r="L8">
-        <v>0.4040217358255376</v>
+        <v>0.3557104181881527</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.557543216015702</v>
+        <v>2.147715635664127</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8377069681289697</v>
+        <v>1.510767001892987</v>
       </c>
       <c r="C9">
-        <v>0.2175057378063272</v>
+        <v>0.1078272976157653</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2294140384173211</v>
+        <v>0.1473357091492389</v>
       </c>
       <c r="F9">
-        <v>2.336415998212118</v>
+        <v>1.387146815745709</v>
       </c>
       <c r="G9">
-        <v>0.002493384397074278</v>
+        <v>0.0008201640713262858</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08226240991939449</v>
+        <v>0.07408836398803942</v>
       </c>
       <c r="K9">
-        <v>0.4009182028070768</v>
+        <v>1.112672300166537</v>
       </c>
       <c r="L9">
-        <v>0.4290604627650794</v>
+        <v>0.46180196998246</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.486674453546044</v>
+        <v>2.145662997489325</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9163280136914409</v>
+        <v>1.795903410219125</v>
       </c>
       <c r="C10">
-        <v>0.2160246875901315</v>
+        <v>0.1045939836352687</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2325272036454678</v>
+        <v>0.1655459930819632</v>
       </c>
       <c r="F10">
-        <v>2.343052591688121</v>
+        <v>1.502853778132973</v>
       </c>
       <c r="G10">
-        <v>0.002489479181443044</v>
+        <v>0.0008135838740168982</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08349311606217213</v>
+        <v>0.07727944700762279</v>
       </c>
       <c r="K10">
-        <v>0.4629240923294446</v>
+        <v>1.321896556768877</v>
       </c>
       <c r="L10">
-        <v>0.4482088192451101</v>
+        <v>0.5414265043770286</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.445220121138334</v>
+        <v>2.168318926776976</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9523272485369603</v>
+        <v>1.926670379282683</v>
       </c>
       <c r="C11">
-        <v>0.2153875506031753</v>
+        <v>0.1031872798088322</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2340314887944217</v>
+        <v>0.1740189665404444</v>
       </c>
       <c r="F11">
-        <v>2.347246927105459</v>
+        <v>1.558488806442071</v>
       </c>
       <c r="G11">
-        <v>0.002487787453856625</v>
+        <v>0.0008106591485890837</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08405480156245915</v>
+        <v>0.07874400044305574</v>
       </c>
       <c r="K11">
-        <v>0.4911468225570275</v>
+        <v>1.417610324479512</v>
       </c>
       <c r="L11">
-        <v>0.4570818119353959</v>
+        <v>0.5781055752099036</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.428666471843314</v>
+        <v>2.184542696253345</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9659922868498825</v>
+        <v>1.976365219483853</v>
       </c>
       <c r="C12">
-        <v>0.2151515251239147</v>
+        <v>0.1026639407492311</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2346137336147933</v>
+        <v>0.1772569926622225</v>
       </c>
       <c r="F12">
-        <v>2.349004046389553</v>
+        <v>1.580022285489818</v>
       </c>
       <c r="G12">
-        <v>0.002487158967766227</v>
+        <v>0.0008095609769027141</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08426774521740299</v>
+        <v>0.07930057951223191</v>
       </c>
       <c r="K12">
-        <v>0.5018359234073841</v>
+        <v>1.453948546075793</v>
       </c>
       <c r="L12">
-        <v>0.4604649505850205</v>
+        <v>0.592068789180999</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.422729404627546</v>
+        <v>2.191597501096084</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9630478247327119</v>
+        <v>1.965654303129668</v>
       </c>
       <c r="C13">
-        <v>0.2152021244782603</v>
+        <v>0.1027762332848745</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2344877771755947</v>
+        <v>0.1765582754453021</v>
       </c>
       <c r="F13">
-        <v>2.348618114289451</v>
+        <v>1.575363379203395</v>
       </c>
       <c r="G13">
-        <v>0.002487293784826862</v>
+        <v>0.0008097970801148912</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08422187335238718</v>
+        <v>0.07918061986189073</v>
       </c>
       <c r="K13">
-        <v>0.4995337641285857</v>
+        <v>1.446118027921045</v>
       </c>
       <c r="L13">
-        <v>0.4597353058383788</v>
+        <v>0.5890581545002931</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.423993315638938</v>
+        <v>2.190036588518666</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9534508242406901</v>
+        <v>1.93075512647323</v>
       </c>
       <c r="C14">
-        <v>0.2153680276416772</v>
+        <v>0.1031440362698923</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2340791381682692</v>
+        <v>0.1742847559515468</v>
       </c>
       <c r="F14">
-        <v>2.347388104164366</v>
+        <v>1.560250839580135</v>
       </c>
       <c r="G14">
-        <v>0.002487735505188477</v>
+        <v>0.0008105686168204951</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08407231574566509</v>
+        <v>0.07878975000306454</v>
       </c>
       <c r="K14">
-        <v>0.4920261889438109</v>
+        <v>1.420597919963797</v>
       </c>
       <c r="L14">
-        <v>0.4573596824585024</v>
+        <v>0.5792528141901556</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.428171382565523</v>
+        <v>2.185104476031711</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9475766476603553</v>
+        <v>1.909402073593867</v>
       </c>
       <c r="C15">
-        <v>0.2154703305576291</v>
+        <v>0.1033705476196261</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2338304746201629</v>
+        <v>0.1728960721238266</v>
       </c>
       <c r="F15">
-        <v>2.346656666448268</v>
+        <v>1.551055683508807</v>
       </c>
       <c r="G15">
-        <v>0.00248800765017264</v>
+        <v>0.0008110424083142414</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08398073884423596</v>
+        <v>0.07855059330742975</v>
       </c>
       <c r="K15">
-        <v>0.4874277966871716</v>
+        <v>1.404978799205594</v>
       </c>
       <c r="L15">
-        <v>0.4559075503506449</v>
+        <v>0.5732565940245706</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.430773735766309</v>
+        <v>2.182203946727498</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9139800254191357</v>
+        <v>1.787380780780779</v>
       </c>
       <c r="C16">
-        <v>0.2160670608846154</v>
+        <v>0.1046872163053365</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2324306623263297</v>
+        <v>0.1649962621538208</v>
       </c>
       <c r="F16">
-        <v>2.342802115844023</v>
+        <v>1.499281138165827</v>
       </c>
       <c r="G16">
-        <v>0.002489591440791141</v>
+        <v>0.0008137763499125564</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08345644391992479</v>
+        <v>0.07718400554186999</v>
       </c>
       <c r="K16">
-        <v>0.4610799462046771</v>
+        <v>1.315653602264291</v>
       </c>
       <c r="L16">
-        <v>0.4476321963411607</v>
+        <v>0.5390393056207756</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.446348315419868</v>
+        <v>2.167382794427226</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8934290112823362</v>
+        <v>1.712812065162808</v>
       </c>
       <c r="C17">
-        <v>0.2164424964924017</v>
+        <v>0.1055114654358817</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2315944403672106</v>
+        <v>0.1601999949012729</v>
       </c>
       <c r="F17">
-        <v>2.340738363090992</v>
+        <v>1.468311056677521</v>
       </c>
       <c r="G17">
-        <v>0.002490584717835075</v>
+        <v>0.000815470760733878</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08313526229052215</v>
+        <v>0.07634904354969052</v>
       </c>
       <c r="K17">
-        <v>0.44492010037672</v>
+        <v>1.261004151713081</v>
       </c>
       <c r="L17">
-        <v>0.4425969557827472</v>
+        <v>0.5181706954161456</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.45649303702794</v>
+        <v>2.159847640408373</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8816306937512195</v>
+        <v>1.670020044769274</v>
       </c>
       <c r="C18">
-        <v>0.2166618832006542</v>
+        <v>0.105991581529274</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2311217628680033</v>
+        <v>0.1574589530160111</v>
       </c>
       <c r="F18">
-        <v>2.339661984994166</v>
+        <v>1.450777999379852</v>
       </c>
       <c r="G18">
-        <v>0.002491164007420346</v>
+        <v>0.0008164518342670782</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08295070052041709</v>
+        <v>0.07587000282253697</v>
       </c>
       <c r="K18">
-        <v>0.4356269161472142</v>
+        <v>1.229620690110579</v>
       </c>
       <c r="L18">
-        <v>0.4397161085067012</v>
+        <v>0.5062101789226858</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.462544882074553</v>
+        <v>2.156066739680995</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8776398019435305</v>
+        <v>1.655547512938284</v>
       </c>
       <c r="C19">
-        <v>0.2167367562084159</v>
+        <v>0.1061551725559298</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2309631490158921</v>
+        <v>0.1565338458034056</v>
       </c>
       <c r="F19">
-        <v>2.33931654991548</v>
+        <v>1.444888708419143</v>
       </c>
       <c r="G19">
-        <v>0.002491361517681725</v>
+        <v>0.0008167851391837001</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08288824140221251</v>
+        <v>0.07570801148829176</v>
       </c>
       <c r="K19">
-        <v>0.4324806828051919</v>
+        <v>1.21900280627122</v>
       </c>
       <c r="L19">
-        <v>0.438743335609459</v>
+        <v>0.5021676321355812</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.4646311770681</v>
+        <v>2.154879824205409</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8956144218894053</v>
+        <v>1.720739726820995</v>
       </c>
       <c r="C20">
-        <v>0.2164021742099784</v>
+        <v>0.105423097772956</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2316825995488472</v>
+        <v>0.1607087233769739</v>
       </c>
       <c r="F20">
-        <v>2.34094660388395</v>
+        <v>1.471578642475166</v>
       </c>
       <c r="G20">
-        <v>0.002490478155961981</v>
+        <v>0.0008152897194019731</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08316943480475558</v>
+        <v>0.07643780083127893</v>
       </c>
       <c r="K20">
-        <v>0.4466401888531664</v>
+        <v>1.2668164461098</v>
       </c>
       <c r="L20">
-        <v>0.4431313848172209</v>
+        <v>0.5203877350332533</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.455390668120032</v>
+        <v>2.160592101710677</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9562688087949027</v>
+        <v>1.941000875592948</v>
       </c>
       <c r="C21">
-        <v>0.2153191556759708</v>
+        <v>0.1030357488421352</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2341988237620001</v>
+        <v>0.1749517240175678</v>
       </c>
       <c r="F21">
-        <v>2.347744807896774</v>
+        <v>1.564676833440956</v>
       </c>
       <c r="G21">
-        <v>0.002487605432146836</v>
+        <v>0.0008103417480626838</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08411623791758416</v>
+        <v>0.07890450303515095</v>
       </c>
       <c r="K21">
-        <v>0.4942313020337963</v>
+        <v>1.428091120356868</v>
       </c>
       <c r="L21">
-        <v>0.458056834599887</v>
+        <v>0.5821308161075791</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.426935186962766</v>
+        <v>2.186527924369813</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9961014282332599</v>
+        <v>2.085994049678845</v>
       </c>
       <c r="C22">
-        <v>0.2146419007983695</v>
+        <v>0.101530037085432</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2359167624321898</v>
+        <v>0.1844334587131087</v>
       </c>
       <c r="F22">
-        <v>2.353171722633746</v>
+        <v>1.6282541154998</v>
       </c>
       <c r="G22">
-        <v>0.002485798644564981</v>
+        <v>0.0008071622488343144</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08473645152537301</v>
+        <v>0.0805282684376678</v>
       </c>
       <c r="K22">
-        <v>0.5253448932618596</v>
+        <v>1.534046917369693</v>
       </c>
       <c r="L22">
-        <v>0.4679461939791878</v>
+        <v>0.6229168192609791</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.410269824669342</v>
+        <v>2.20882098450295</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9748247396021839</v>
+        <v>2.008504829744993</v>
       </c>
       <c r="C23">
-        <v>0.2150005742768037</v>
+        <v>0.1023286279204072</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2349931670922842</v>
+        <v>0.1793562319573496</v>
       </c>
       <c r="F23">
-        <v>2.35018531377969</v>
+        <v>1.594059706769073</v>
       </c>
       <c r="G23">
-        <v>0.002486756510196004</v>
+        <v>0.0008088544181944745</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08440530749131625</v>
+        <v>0.07966052529859624</v>
       </c>
       <c r="K23">
-        <v>0.5087382380868064</v>
+        <v>1.477439937528828</v>
       </c>
       <c r="L23">
-        <v>0.4626557999567069</v>
+        <v>0.6011061635673798</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.41898763357392</v>
+        <v>2.19641282266241</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8946263455726182</v>
+        <v>1.717155388199558</v>
       </c>
       <c r="C24">
-        <v>0.2164203928732853</v>
+        <v>0.1054630293534267</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2316427176176674</v>
+        <v>0.1604786763361261</v>
       </c>
       <c r="F24">
-        <v>2.340852115249277</v>
+        <v>1.470100522117065</v>
       </c>
       <c r="G24">
-        <v>0.002490526306909232</v>
+        <v>0.0008153715464987998</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08315398512946359</v>
+        <v>0.07639767059001912</v>
       </c>
       <c r="K24">
-        <v>0.4458625451422336</v>
+        <v>1.264188599281624</v>
       </c>
       <c r="L24">
-        <v>0.4428897258916606</v>
+        <v>0.5193852963723202</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.455888365342929</v>
+        <v>2.160253818522932</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8089663984227116</v>
+        <v>1.406547937813315</v>
       </c>
       <c r="C25">
-        <v>0.2180837283585042</v>
+        <v>0.1090741009885576</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2283460942565938</v>
+        <v>0.1407826239766017</v>
       </c>
       <c r="F25">
-        <v>2.335015315640831</v>
+        <v>1.346980138907128</v>
       </c>
       <c r="G25">
-        <v>0.002494898079276658</v>
+        <v>0.000822651390750335</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08181092866557194</v>
+        <v>0.07292386081960345</v>
       </c>
       <c r="K25">
-        <v>0.3781013923133969</v>
+        <v>1.03599693129209</v>
       </c>
       <c r="L25">
-        <v>0.4221541453525788</v>
+        <v>0.4328356509868456</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.503982687212186</v>
+        <v>2.142189281769816</v>
       </c>
     </row>
   </sheetData>
